--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_44.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_44.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_9</t>
+          <t>model_1_44_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9967185710221347</v>
+        <v>0.9052631630741598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7213432581663478</v>
+        <v>0.7471245078115705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7165150346908256</v>
+        <v>0.7606742369256052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9933197649691906</v>
+        <v>0.05919566116068331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01377145544849705</v>
+        <v>0.3975902382334924</v>
       </c>
       <c r="G2" t="n">
-        <v>1.863378915737947</v>
+        <v>1.690979580648604</v>
       </c>
       <c r="H2" t="n">
-        <v>1.014009283508194</v>
+        <v>0.8560543776120499</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003841311358968555</v>
+        <v>0.5150260644950068</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2393611077744751</v>
+        <v>1.763327993976827</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1173518446744534</v>
+        <v>0.6305475701590582</v>
       </c>
       <c r="L2" t="n">
-        <v>1.001920836474848</v>
+        <v>0.6751879876828335</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1223477556540525</v>
+        <v>0.6573912856341413</v>
       </c>
       <c r="N2" t="n">
-        <v>138.570314549537</v>
+        <v>35.84466671245549</v>
       </c>
       <c r="O2" t="n">
-        <v>217.7972431659701</v>
+        <v>56.5655557352149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_8</t>
+          <t>model_1_44_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9966753615953944</v>
+        <v>0.9057173897542273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.721241372537951</v>
+        <v>0.7471240152324716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7163501314769791</v>
+        <v>0.760244724345457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9940400501808261</v>
+        <v>0.03694423303755345</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01395279616905605</v>
+        <v>0.3956839460265714</v>
       </c>
       <c r="G3" t="n">
-        <v>1.864060225404178</v>
+        <v>1.690982874527306</v>
       </c>
       <c r="H3" t="n">
-        <v>1.014599132742485</v>
+        <v>0.8575907192066698</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003427128362054272</v>
+        <v>0.5272072003407317</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2370238892207799</v>
+        <v>1.777176827759835</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1181219546445793</v>
+        <v>0.6290341374095458</v>
       </c>
       <c r="L3" t="n">
-        <v>1.001946129797818</v>
+        <v>0.6767453363002081</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1231506507999541</v>
+        <v>0.6558134229192445</v>
       </c>
       <c r="N3" t="n">
-        <v>138.5441506971488</v>
+        <v>35.85427900497277</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7710793135818</v>
+        <v>56.57516802773218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_7</t>
+          <t>model_1_44_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9966297363003853</v>
+        <v>0.9061469985740737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.721137507220597</v>
+        <v>0.7471067870762265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7161809066337137</v>
+        <v>0.759780781004906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9947180120159687</v>
+        <v>0.01465881771191357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01414427577193072</v>
+        <v>0.3938809697126841</v>
       </c>
       <c r="G4" t="n">
-        <v>1.864754773259579</v>
+        <v>1.691098079287446</v>
       </c>
       <c r="H4" t="n">
-        <v>1.015204440194626</v>
+        <v>0.8592502176348404</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003037282423061241</v>
+        <v>0.539406941856551</v>
       </c>
       <c r="J4" t="n">
-        <v>0.234652695882683</v>
+        <v>1.790705960598244</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1189297093746164</v>
+        <v>0.6275993703890118</v>
       </c>
       <c r="L4" t="n">
-        <v>1.001972837287579</v>
+        <v>0.6782182808253954</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1239927933211316</v>
+        <v>0.6543175748962692</v>
       </c>
       <c r="N4" t="n">
-        <v>138.5168905516541</v>
+        <v>35.86341304531206</v>
       </c>
       <c r="O4" t="n">
-        <v>217.7438191680872</v>
+        <v>56.58430206807147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_6</t>
+          <t>model_1_44_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9965815739552962</v>
+        <v>0.9065531379138629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7210316539319941</v>
+        <v>0.7470734535810981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7160076483233678</v>
+        <v>0.7592838017620935</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9953508891403563</v>
+        <v>-0.007644101347686671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01434640283125826</v>
+        <v>0.3921764897859455</v>
       </c>
       <c r="G5" t="n">
-        <v>1.865462614687876</v>
+        <v>1.691320980522856</v>
       </c>
       <c r="H5" t="n">
-        <v>1.015824175124639</v>
+        <v>0.861027883569868</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002673361382030563</v>
+        <v>0.5516162654702025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2322429732072456</v>
+        <v>1.803925829136401</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1197764702738324</v>
+        <v>0.6262399618244955</v>
       </c>
       <c r="L5" t="n">
-        <v>1.002001029879827</v>
+        <v>0.6796107585618159</v>
       </c>
       <c r="M5" t="n">
-        <v>0.124875602584864</v>
+        <v>0.6529002934947977</v>
       </c>
       <c r="N5" t="n">
-        <v>138.4885120839607</v>
+        <v>35.87208662293716</v>
       </c>
       <c r="O5" t="n">
-        <v>217.7154407003937</v>
+        <v>56.59297564569657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_5</t>
+          <t>model_1_44_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9965308059999237</v>
+        <v>0.9069362221259148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7209237726537667</v>
+        <v>0.7470245593833508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7158300517859663</v>
+        <v>0.7587551283982215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9959363853464667</v>
+        <v>-0.02996079625188552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01455946507954706</v>
+        <v>0.3905687672983091</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86618401729213</v>
+        <v>1.69164793624833</v>
       </c>
       <c r="H6" t="n">
-        <v>1.016459427641285</v>
+        <v>0.8629189175381958</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002336685618858734</v>
+        <v>0.5638331304170896</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2298017737377277</v>
+        <v>1.816855837176637</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1206626084565847</v>
+        <v>0.624955012219527</v>
       </c>
       <c r="L6" t="n">
-        <v>1.002030747707362</v>
+        <v>0.6809241901459937</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1257994655046149</v>
+        <v>0.6515606409249334</v>
       </c>
       <c r="N6" t="n">
-        <v>138.4590279518612</v>
+        <v>35.88030244914084</v>
       </c>
       <c r="O6" t="n">
-        <v>217.6859565682942</v>
+        <v>56.60119147190024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_4</t>
+          <t>model_1_44_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9964772575290552</v>
+        <v>0.9072971521216204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7208139132880125</v>
+        <v>0.7469606447481048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7156483006766253</v>
+        <v>0.7581959466242971</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9964717260197908</v>
+        <v>-0.05228247169430467</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01478419655655771</v>
+        <v>0.389054021317392</v>
       </c>
       <c r="G7" t="n">
-        <v>1.866918647376784</v>
+        <v>1.69207533370852</v>
       </c>
       <c r="H7" t="n">
-        <v>1.017109540820863</v>
+        <v>0.8649190783203009</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002028850610079275</v>
+        <v>0.5760527218681951</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2273200613398109</v>
+        <v>1.82950814602244</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1215902815053806</v>
+        <v>0.6237419509038911</v>
       </c>
       <c r="L7" t="n">
-        <v>1.002062093153724</v>
+        <v>0.6821616644169843</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1267666315156461</v>
+        <v>0.6502959370777077</v>
       </c>
       <c r="N7" t="n">
-        <v>138.428392937899</v>
+        <v>35.88807414544868</v>
       </c>
       <c r="O7" t="n">
-        <v>217.655321554332</v>
+        <v>56.60896316820808</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_3</t>
+          <t>model_1_44_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9964208998823988</v>
+        <v>0.9076364789426564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7207018783735271</v>
+        <v>0.7468822884574792</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7154620569467602</v>
+        <v>0.7576076784622391</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9969540871735714</v>
+        <v>-0.074604120826816</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01502071754340422</v>
+        <v>0.3876299392391577</v>
       </c>
       <c r="G8" t="n">
-        <v>1.867667825365821</v>
+        <v>1.69259930258473</v>
       </c>
       <c r="H8" t="n">
-        <v>1.017775723843558</v>
+        <v>0.8670232794262347</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001751480222570961</v>
+        <v>0.5882722989164247</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2248057339504468</v>
+        <v>1.841897358851799</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1225590369715927</v>
+        <v>0.6225993408598806</v>
       </c>
       <c r="L8" t="n">
-        <v>1.002095082995669</v>
+        <v>0.6833250706605363</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1277766289076551</v>
+        <v>0.6491046837585948</v>
       </c>
       <c r="N8" t="n">
-        <v>138.396649722514</v>
+        <v>35.89540831865899</v>
       </c>
       <c r="O8" t="n">
-        <v>217.623578338947</v>
+        <v>56.6162973414184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_2</t>
+          <t>model_1_44_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9963615962959421</v>
+        <v>0.9079548184480819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7205876745044305</v>
+        <v>0.7467900307364277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7152708427031641</v>
+        <v>0.7569911160408259</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997380340157199</v>
+        <v>-0.09692344997664337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01526960200938923</v>
+        <v>0.3862939364348805</v>
       </c>
       <c r="G9" t="n">
-        <v>1.868431507164331</v>
+        <v>1.69321623039021</v>
       </c>
       <c r="H9" t="n">
-        <v>1.018459686105663</v>
+        <v>0.8692286874572863</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001506373512963945</v>
+        <v>0.600490605932723</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2229570746932772</v>
+        <v>1.854036563060222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1235702310809089</v>
+        <v>0.6215254913797829</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00212979729018</v>
+        <v>0.6844165203934236</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1288308716436653</v>
+        <v>0.6479851182829545</v>
       </c>
       <c r="N9" t="n">
-        <v>138.363782447309</v>
+        <v>35.90231341190331</v>
       </c>
       <c r="O9" t="n">
-        <v>217.590711063742</v>
+        <v>56.62320243466272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_1</t>
+          <t>model_1_44_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9962992269039855</v>
+        <v>0.9082527858711789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7204713255313917</v>
+        <v>0.7466844071880538</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7150751470702328</v>
+        <v>0.7563475550419381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997747634578663</v>
+        <v>-0.1192373461362481</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01553135300521283</v>
+        <v>0.385043430902089</v>
       </c>
       <c r="G10" t="n">
-        <v>1.869209533282779</v>
+        <v>1.693922535544537</v>
       </c>
       <c r="H10" t="n">
-        <v>1.019159678037574</v>
+        <v>0.8715306678344973</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00129516953185424</v>
+        <v>0.6127059387582598</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2211979600033899</v>
+        <v>1.865934768635525</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1246248490679641</v>
+        <v>0.6205186789308513</v>
       </c>
       <c r="L10" t="n">
-        <v>1.002166306202545</v>
+        <v>0.6854381229868989</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1299303869017896</v>
+        <v>0.6469354437436828</v>
       </c>
       <c r="N10" t="n">
-        <v>138.3297890471617</v>
+        <v>35.90879828703751</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5567176635947</v>
+        <v>56.62968730979691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_0</t>
+          <t>model_1_44_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9962336934688014</v>
+        <v>0.9085310784435957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7203526564124896</v>
+        <v>0.7465659865681954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7148747494430924</v>
+        <v>0.755678005040357</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9980525159076812</v>
+        <v>-0.1415415218103238</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01580638281360191</v>
+        <v>0.3838754965087081</v>
       </c>
       <c r="G11" t="n">
-        <v>1.870003074227298</v>
+        <v>1.694714414774807</v>
       </c>
       <c r="H11" t="n">
-        <v>1.019876488730133</v>
+        <v>0.8739256093674133</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001119854725280308</v>
+        <v>0.6249159502824375</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2194156460470412</v>
+        <v>1.877603049254696</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1257234378053747</v>
+        <v>0.6195768689264538</v>
       </c>
       <c r="L11" t="n">
-        <v>1.002204667237775</v>
+        <v>0.686392268949471</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1310757448361439</v>
+        <v>0.6459535389375826</v>
       </c>
       <c r="N11" t="n">
-        <v>138.2946828899619</v>
+        <v>35.91487401361906</v>
       </c>
       <c r="O11" t="n">
-        <v>217.5216115063949</v>
+        <v>56.63576303637846</v>
       </c>
     </row>
   </sheetData>
